--- a/DailyCosts.xlsx
+++ b/DailyCosts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Moscow</t>
   </si>
@@ -76,16 +76,62 @@
   </si>
   <si>
     <t>High</t>
+  </si>
+  <si>
+    <t>Goreme</t>
+  </si>
+  <si>
+    <t>Lisbon</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Reykjavik</t>
+  </si>
+  <si>
+    <t>Edinburgh</t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t>Krakow</t>
+  </si>
+  <si>
+    <t>Copenhagen</t>
+  </si>
+  <si>
+    <t>Athens</t>
+  </si>
+  <si>
+    <t>Munich</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -126,8 +172,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -135,7 +187,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -465,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -697,8 +755,149 @@
         <v>325.75</v>
       </c>
     </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>46.96</v>
+      </c>
+      <c r="C17" s="3">
+        <v>117.4</v>
+      </c>
+      <c r="D17" s="3">
+        <v>281.73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>51.69</v>
+      </c>
+      <c r="C18" s="3">
+        <v>125.06</v>
+      </c>
+      <c r="D18" s="3">
+        <v>293.31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>56.13</v>
+      </c>
+      <c r="C19" s="3">
+        <v>125.59</v>
+      </c>
+      <c r="D19" s="3">
+        <v>251.29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>75.510000000000005</v>
+      </c>
+      <c r="C20" s="3">
+        <v>207.66</v>
+      </c>
+      <c r="D20" s="3">
+        <v>634.65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2">
+        <v>63.38</v>
+      </c>
+      <c r="C21" s="3">
+        <v>156.04</v>
+      </c>
+      <c r="D21" s="3">
+        <v>394.29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="3">
+        <v>56.03</v>
+      </c>
+      <c r="C22" s="3">
+        <v>127.12</v>
+      </c>
+      <c r="D22" s="3">
+        <v>294.62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="3">
+        <v>28.93</v>
+      </c>
+      <c r="C23" s="3">
+        <v>70.53</v>
+      </c>
+      <c r="D23" s="3">
+        <v>162.76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="3">
+        <v>59.04</v>
+      </c>
+      <c r="C24" s="3">
+        <v>147.96</v>
+      </c>
+      <c r="D24" s="3">
+        <v>365.63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="3">
+        <v>41.72</v>
+      </c>
+      <c r="C25" s="3">
+        <v>103.25</v>
+      </c>
+      <c r="D25" s="3">
+        <v>247.52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="3">
+        <v>67.69</v>
+      </c>
+      <c r="C26" s="3">
+        <v>133.66999999999999</v>
+      </c>
+      <c r="D26" s="3">
+        <v>253.86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
